--- a/src/test/java/top/yumbo/test/excel/test2.xlsx
+++ b/src/test/java/top/yumbo/test/excel/test2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\ExcelImportAndExport\src\test\java\top\yumbo\test\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E1901-615F-4100-AE3F-7CAE4299641D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77D578-54AB-4A1A-8D2E-921162FF02F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -532,13 +532,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,23 +553,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,7 +879,7 @@
   <dimension ref="A1:XEP126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -903,26 +903,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16370" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
@@ -17282,28 +17282,28 @@
       <c r="XEP1" s="18"/>
     </row>
     <row r="2" spans="1:16370" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="18"/>
@@ -33665,9 +33665,9 @@
       <c r="XEP2" s="18"/>
     </row>
     <row r="3" spans="1:16370" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -33680,11 +33680,11 @@
       <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
